--- a/1. Cronograma/Steven Pozo_cronograma.xlsx
+++ b/1. Cronograma/Steven Pozo_cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7. Septimo Semestre\1. Practicas\3. Perfil profesional\Practicas-PP\1. Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0760BEF7-739D-4560-9156-1A8F33652FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897BF06E-1B30-4EA8-AF36-A398A5A05D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
   <si>
     <t>Actividad</t>
   </si>
@@ -316,6 +316,24 @@
   <si>
     <t>Arreglo de formateo de fechas en la API post y get de Loan.
 Arreglo de bugs encontrados dentro de las APIS de user en relación con la cédula.</t>
+  </si>
+  <si>
+    <t>Corrección y ajuste de requisitos</t>
+  </si>
+  <si>
+    <t>Corrección y ajuste de requisitos Fase II</t>
+  </si>
+  <si>
+    <t>Reestructuración de los requerimientos funcionales</t>
+  </si>
+  <si>
+    <t>Corrección de RF01, RF02, RF03 y RF04</t>
+  </si>
+  <si>
+    <t>Corrección de casos de uso</t>
+  </si>
+  <si>
+    <t>Reestructuración del caso de uso RF01, RF02, RF03 y RF04 (diagramas)</t>
   </si>
 </sst>
 </file>
@@ -616,46 +634,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -992,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A38B84-5357-489F-A427-01102E9ABF42}">
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1042,16 +1060,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="48">
         <v>45565</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="48">
         <v>45569</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="38">
         <v>45565</v>
       </c>
       <c r="E2" s="7">
@@ -1067,19 +1085,19 @@
         <v>12</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="40">
+      <c r="J2" s="43">
         <v>6</v>
       </c>
       <c r="L2" s="1">
-        <f>SUM(J2:J103)</f>
-        <v>172</v>
+        <f>SUM(J2:J108)</f>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="39"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1093,13 +1111,13 @@
         <v>13</v>
       </c>
       <c r="I3" s="17"/>
-      <c r="J3" s="40"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="39"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="7">
         <v>0.5</v>
       </c>
@@ -1113,12 +1131,12 @@
         <v>14</v>
       </c>
       <c r="I4" s="17"/>
-      <c r="J4" s="40"/>
+      <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -1128,10 +1146,10 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="39">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="38">
         <v>45566</v>
       </c>
       <c r="E6" s="7">
@@ -1147,15 +1165,15 @@
         <v>15</v>
       </c>
       <c r="I6" s="17"/>
-      <c r="J6" s="40">
+      <c r="J6" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="39"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="7">
         <v>0.5</v>
       </c>
@@ -1169,12 +1187,12 @@
         <v>16</v>
       </c>
       <c r="I7" s="17"/>
-      <c r="J7" s="40"/>
+      <c r="J7" s="43"/>
     </row>
     <row r="8" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -1184,10 +1202,10 @@
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="39">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="38">
         <v>45567</v>
       </c>
       <c r="E9" s="7">
@@ -1203,15 +1221,15 @@
         <v>17</v>
       </c>
       <c r="I9" s="17"/>
-      <c r="J9" s="40">
+      <c r="J9" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="39"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -1225,12 +1243,12 @@
         <v>18</v>
       </c>
       <c r="I10" s="17"/>
-      <c r="J10" s="40"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1240,10 +1258,10 @@
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="39">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="38">
         <v>45568</v>
       </c>
       <c r="E12" s="7">
@@ -1259,15 +1277,15 @@
         <v>19</v>
       </c>
       <c r="I12" s="17"/>
-      <c r="J12" s="40">
+      <c r="J12" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="39"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -1281,12 +1299,12 @@
         <v>20</v>
       </c>
       <c r="I13" s="17"/>
-      <c r="J13" s="40"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -1296,10 +1314,10 @@
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="39">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="38">
         <v>45569</v>
       </c>
       <c r="E15" s="7">
@@ -1315,15 +1333,15 @@
         <v>21</v>
       </c>
       <c r="I15" s="17"/>
-      <c r="J15" s="42">
+      <c r="J15" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="41"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1337,7 +1355,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="17"/>
-      <c r="J16" s="43"/>
+      <c r="J16" s="46"/>
     </row>
     <row r="17" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
@@ -1352,16 +1370,16 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="48">
         <v>45572</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="48">
         <v>45575</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="38">
         <v>45572</v>
       </c>
       <c r="E18" s="7">
@@ -1377,15 +1395,15 @@
         <v>24</v>
       </c>
       <c r="I18" s="17"/>
-      <c r="J18" s="40">
+      <c r="J18" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="39"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="7">
         <v>0.375</v>
       </c>
@@ -1399,13 +1417,13 @@
         <v>25</v>
       </c>
       <c r="I19" s="17"/>
-      <c r="J19" s="40"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="39"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1419,13 +1437,13 @@
         <v>26</v>
       </c>
       <c r="I20" s="17"/>
-      <c r="J20" s="40"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="39"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="7">
         <v>0.5</v>
       </c>
@@ -1441,12 +1459,12 @@
       <c r="I21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="40"/>
+      <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -1456,10 +1474,10 @@
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="39">
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="38">
         <v>45573</v>
       </c>
       <c r="E23" s="7">
@@ -1475,15 +1493,15 @@
         <v>29</v>
       </c>
       <c r="I23" s="17"/>
-      <c r="J23" s="40">
+      <c r="J23" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="39"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -1497,13 +1515,13 @@
         <v>30</v>
       </c>
       <c r="I24" s="17"/>
-      <c r="J24" s="40"/>
+      <c r="J24" s="43"/>
     </row>
     <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="39"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -1517,12 +1535,12 @@
         <v>31</v>
       </c>
       <c r="I25" s="17"/>
-      <c r="J25" s="40"/>
+      <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -1532,10 +1550,10 @@
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="39">
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="38">
         <v>45574</v>
       </c>
       <c r="E27" s="16">
@@ -1551,15 +1569,15 @@
         <v>32</v>
       </c>
       <c r="I27" s="17"/>
-      <c r="J27" s="40">
+      <c r="J27" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="39"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="7">
         <v>0.375</v>
       </c>
@@ -1573,13 +1591,13 @@
         <v>33</v>
       </c>
       <c r="I28" s="17"/>
-      <c r="J28" s="40"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="39"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1593,13 +1611,13 @@
         <v>34</v>
       </c>
       <c r="I29" s="17"/>
-      <c r="J29" s="40"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="39"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="7">
         <v>0.5</v>
       </c>
@@ -1613,12 +1631,12 @@
         <v>35</v>
       </c>
       <c r="I30" s="17"/>
-      <c r="J30" s="40"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1628,10 +1646,10 @@
       <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="39">
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="38">
         <v>45575</v>
       </c>
       <c r="E32" s="7">
@@ -1647,15 +1665,15 @@
         <v>36</v>
       </c>
       <c r="I32" s="17"/>
-      <c r="J32" s="40">
+      <c r="J32" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="39"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1669,13 +1687,13 @@
         <v>37</v>
       </c>
       <c r="I33" s="17"/>
-      <c r="J33" s="40"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="39"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="7">
         <v>0.5</v>
       </c>
@@ -1689,7 +1707,7 @@
         <v>38</v>
       </c>
       <c r="I34" s="17"/>
-      <c r="J34" s="40"/>
+      <c r="J34" s="43"/>
     </row>
     <row r="35" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
@@ -1704,16 +1722,16 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="48">
         <v>45579</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="48">
         <v>45583</v>
       </c>
-      <c r="D36" s="39">
+      <c r="D36" s="38">
         <v>45579</v>
       </c>
       <c r="E36" s="7">
@@ -1729,15 +1747,15 @@
         <v>40</v>
       </c>
       <c r="I36" s="17"/>
-      <c r="J36" s="40">
+      <c r="J36" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="39"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -1751,13 +1769,13 @@
         <v>41</v>
       </c>
       <c r="I37" s="17"/>
-      <c r="J37" s="40"/>
+      <c r="J37" s="43"/>
     </row>
     <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="39"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="7">
         <v>0.625</v>
       </c>
@@ -1771,12 +1789,12 @@
         <v>42</v>
       </c>
       <c r="I38" s="17"/>
-      <c r="J38" s="40"/>
+      <c r="J38" s="43"/>
     </row>
     <row r="39" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
@@ -1786,10 +1804,10 @@
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="39">
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="38">
         <v>45580</v>
       </c>
       <c r="E40" s="7">
@@ -1805,15 +1823,15 @@
         <v>43</v>
       </c>
       <c r="I40" s="17"/>
-      <c r="J40" s="40">
+      <c r="J40" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="39"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -1827,13 +1845,13 @@
         <v>44</v>
       </c>
       <c r="I41" s="17"/>
-      <c r="J41" s="40"/>
+      <c r="J41" s="43"/>
     </row>
     <row r="42" spans="1:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="39"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="38"/>
       <c r="E42" s="7">
         <v>0.625</v>
       </c>
@@ -1847,12 +1865,12 @@
         <v>45</v>
       </c>
       <c r="I42" s="17"/>
-      <c r="J42" s="40"/>
+      <c r="J42" s="43"/>
     </row>
     <row r="43" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -1862,10 +1880,10 @@
       <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="39">
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="38">
         <v>45581</v>
       </c>
       <c r="E44" s="7">
@@ -1881,15 +1899,15 @@
         <v>46</v>
       </c>
       <c r="I44" s="17"/>
-      <c r="J44" s="40">
+      <c r="J44" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="39"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="7">
         <v>0.625</v>
       </c>
@@ -1903,12 +1921,12 @@
         <v>47</v>
       </c>
       <c r="I45" s="17"/>
-      <c r="J45" s="40"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="35"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -1918,10 +1936,10 @@
       <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="39">
+      <c r="A47" s="47"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="38">
         <v>45582</v>
       </c>
       <c r="E47" s="7">
@@ -1937,15 +1955,15 @@
         <v>48</v>
       </c>
       <c r="I47" s="17"/>
-      <c r="J47" s="40">
+      <c r="J47" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="35"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="39"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -1961,12 +1979,12 @@
       <c r="I48" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J48" s="40"/>
+      <c r="J48" s="43"/>
     </row>
     <row r="49" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -1976,10 +1994,10 @@
       <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="39">
+      <c r="A50" s="47"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="38">
         <v>45583</v>
       </c>
       <c r="E50" s="7">
@@ -1995,15 +2013,15 @@
         <v>51</v>
       </c>
       <c r="I50" s="17"/>
-      <c r="J50" s="40">
+      <c r="J50" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="35"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="39"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="38"/>
       <c r="E51" s="7">
         <v>0.625</v>
       </c>
@@ -2017,7 +2035,7 @@
         <v>52</v>
       </c>
       <c r="I51" s="17"/>
-      <c r="J51" s="40"/>
+      <c r="J51" s="43"/>
     </row>
     <row r="52" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
@@ -2032,16 +2050,16 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="36">
+      <c r="B53" s="48">
         <v>45586</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C53" s="48">
         <v>45590</v>
       </c>
-      <c r="D53" s="39">
+      <c r="D53" s="38">
         <v>45586</v>
       </c>
       <c r="E53" s="7">
@@ -2057,15 +2075,15 @@
         <v>54</v>
       </c>
       <c r="I53" s="17"/>
-      <c r="J53" s="40">
+      <c r="J53" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="35"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="39"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="38"/>
       <c r="E54" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2079,12 +2097,12 @@
         <v>55</v>
       </c>
       <c r="I54" s="17"/>
-      <c r="J54" s="40"/>
+      <c r="J54" s="43"/>
     </row>
     <row r="55" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="35"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
       <c r="D55" s="10"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -2094,10 +2112,10 @@
       <c r="J55" s="14"/>
     </row>
     <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="35"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="39">
+      <c r="A56" s="47"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="38">
         <v>45587</v>
       </c>
       <c r="E56" s="7">
@@ -2113,15 +2131,15 @@
         <v>56</v>
       </c>
       <c r="I56" s="17"/>
-      <c r="J56" s="40">
+      <c r="J56" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="35"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="39"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="38"/>
       <c r="E57" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -2135,13 +2153,13 @@
         <v>57</v>
       </c>
       <c r="I57" s="17"/>
-      <c r="J57" s="40"/>
+      <c r="J57" s="43"/>
     </row>
     <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="35"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="39"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="38"/>
       <c r="E58" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2155,12 +2173,12 @@
         <v>58</v>
       </c>
       <c r="I58" s="17"/>
-      <c r="J58" s="40"/>
+      <c r="J58" s="43"/>
     </row>
     <row r="59" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="35"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
       <c r="D59" s="10"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
@@ -2170,10 +2188,10 @@
       <c r="J59" s="14"/>
     </row>
     <row r="60" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="35"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="39">
+      <c r="A60" s="47"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="38">
         <v>45588</v>
       </c>
       <c r="E60" s="7">
@@ -2189,15 +2207,15 @@
         <v>59</v>
       </c>
       <c r="I60" s="17"/>
-      <c r="J60" s="40">
+      <c r="J60" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A61" s="35"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="39"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="38"/>
       <c r="E61" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -2213,13 +2231,13 @@
       <c r="I61" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J61" s="40"/>
+      <c r="J61" s="43"/>
     </row>
     <row r="62" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="35"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="39"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="38"/>
       <c r="E62" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2233,12 +2251,12 @@
         <v>62</v>
       </c>
       <c r="I62" s="17"/>
-      <c r="J62" s="40"/>
+      <c r="J62" s="43"/>
     </row>
     <row r="63" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="35"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
       <c r="D63" s="10"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
@@ -2248,10 +2266,10 @@
       <c r="J63" s="14"/>
     </row>
     <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="35"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="39">
+      <c r="A64" s="47"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="38">
         <v>45589</v>
       </c>
       <c r="E64" s="7">
@@ -2267,15 +2285,15 @@
         <v>63</v>
       </c>
       <c r="I64" s="17"/>
-      <c r="J64" s="40">
+      <c r="J64" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="35"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="39"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="38"/>
       <c r="E65" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2289,12 +2307,12 @@
         <v>64</v>
       </c>
       <c r="I65" s="17"/>
-      <c r="J65" s="40"/>
+      <c r="J65" s="43"/>
     </row>
     <row r="66" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="35"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="48"/>
       <c r="D66" s="10"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
@@ -2304,10 +2322,10 @@
       <c r="J66" s="14"/>
     </row>
     <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="35"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="39">
+      <c r="A67" s="47"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="38">
         <v>45590</v>
       </c>
       <c r="E67" s="7">
@@ -2323,15 +2341,15 @@
         <v>65</v>
       </c>
       <c r="I67" s="17"/>
-      <c r="J67" s="40">
+      <c r="J67" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="35"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="39"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="38"/>
       <c r="E68" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2345,7 +2363,7 @@
         <v>66</v>
       </c>
       <c r="I68" s="17"/>
-      <c r="J68" s="40"/>
+      <c r="J68" s="43"/>
     </row>
     <row r="69" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
@@ -2360,16 +2378,16 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="36">
+      <c r="B70" s="48">
         <v>45593</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="D70" s="39">
+      <c r="D70" s="38">
         <v>45593</v>
       </c>
       <c r="E70" s="7">
@@ -2385,15 +2403,15 @@
         <v>69</v>
       </c>
       <c r="I70" s="17"/>
-      <c r="J70" s="40">
+      <c r="J70" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="35"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="39"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="38"/>
       <c r="E71" s="7">
         <v>0.375</v>
       </c>
@@ -2407,12 +2425,12 @@
         <v>70</v>
       </c>
       <c r="I71" s="17"/>
-      <c r="J71" s="40"/>
+      <c r="J71" s="43"/>
     </row>
     <row r="72" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="35"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
       <c r="D72" s="10"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
@@ -2422,10 +2440,10 @@
       <c r="J72" s="14"/>
     </row>
     <row r="73" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="35"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="39">
+      <c r="A73" s="47"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="38">
         <v>45594</v>
       </c>
       <c r="E73" s="7">
@@ -2441,15 +2459,15 @@
         <v>71</v>
       </c>
       <c r="I73" s="17"/>
-      <c r="J73" s="40">
+      <c r="J73" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="35"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="39"/>
+      <c r="A74" s="47"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="38"/>
       <c r="E74" s="7">
         <v>0.70833333333333337</v>
       </c>
@@ -2463,13 +2481,13 @@
         <v>72</v>
       </c>
       <c r="I74" s="17"/>
-      <c r="J74" s="40"/>
+      <c r="J74" s="43"/>
     </row>
     <row r="75" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="35"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="39"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="38"/>
       <c r="E75" s="7">
         <v>0.75</v>
       </c>
@@ -2483,12 +2501,12 @@
         <v>73</v>
       </c>
       <c r="I75" s="17"/>
-      <c r="J75" s="40"/>
+      <c r="J75" s="43"/>
     </row>
     <row r="76" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="35"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="48"/>
       <c r="D76" s="10"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
@@ -2498,9 +2516,9 @@
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="35"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
+      <c r="A77" s="47"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="48"/>
       <c r="D77" s="21">
         <v>45595</v>
       </c>
@@ -2522,9 +2540,9 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="35"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="48"/>
       <c r="D78" s="10"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
@@ -2534,9 +2552,9 @@
       <c r="J78" s="14"/>
     </row>
     <row r="79" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="35"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="48"/>
       <c r="D79" s="21">
         <v>45596</v>
       </c>
@@ -2572,13 +2590,13 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="38">
+      <c r="B81" s="41">
         <v>45601</v>
       </c>
-      <c r="C81" s="38">
+      <c r="C81" s="41">
         <v>45604</v>
       </c>
       <c r="D81" s="21">
@@ -2602,9 +2620,9 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="37"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="38"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
       <c r="D82" s="10"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
@@ -2614,9 +2632,9 @@
       <c r="J82" s="14"/>
     </row>
     <row r="83" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="37"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
       <c r="D83" s="21">
         <v>45602</v>
       </c>
@@ -2638,9 +2656,9 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="37"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
       <c r="D84" s="10"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
@@ -2650,9 +2668,9 @@
       <c r="J84" s="14"/>
     </row>
     <row r="85" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="37"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
       <c r="D85" s="21">
         <v>45603</v>
       </c>
@@ -2674,9 +2692,9 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="37"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
       <c r="D86" s="10"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -2686,10 +2704,10 @@
       <c r="J86" s="23"/>
     </row>
     <row r="87" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="37"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="39">
+      <c r="A87" s="40"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="38">
         <v>45604</v>
       </c>
       <c r="E87" s="7">
@@ -2707,15 +2725,15 @@
       <c r="I87" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J87" s="44">
+      <c r="J87" s="39">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="37"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="39"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="38"/>
       <c r="E88" s="7">
         <v>0.70833333333333337</v>
       </c>
@@ -2729,7 +2747,7 @@
         <v>82</v>
       </c>
       <c r="I88" s="17"/>
-      <c r="J88" s="44"/>
+      <c r="J88" s="39"/>
     </row>
     <row r="89" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
@@ -2744,13 +2762,13 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="37" t="s">
+      <c r="A90" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B90" s="38">
+      <c r="B90" s="41">
         <v>45607</v>
       </c>
-      <c r="C90" s="38">
+      <c r="C90" s="41">
         <v>45611</v>
       </c>
       <c r="D90" s="24">
@@ -2776,9 +2794,9 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="37"/>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
+      <c r="A91" s="40"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
       <c r="D91" s="10"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
@@ -2788,10 +2806,10 @@
       <c r="J91" s="23"/>
     </row>
     <row r="92" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="37"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="47">
+      <c r="A92" s="40"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="36">
         <v>45608</v>
       </c>
       <c r="E92" s="7">
@@ -2814,10 +2832,10 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="37"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="48"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="37"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
       <c r="G93" s="12"/>
@@ -2826,10 +2844,10 @@
       <c r="J93" s="23"/>
     </row>
     <row r="94" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="37"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="47">
+      <c r="A94" s="40"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="36">
         <v>45609</v>
       </c>
       <c r="E94" s="7">
@@ -2852,9 +2870,9 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="37"/>
-      <c r="B95" s="38"/>
-      <c r="C95" s="38"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
       <c r="D95" s="10"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
@@ -2864,9 +2882,9 @@
       <c r="J95" s="23"/>
     </row>
     <row r="96" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="37"/>
-      <c r="B96" s="38"/>
-      <c r="C96" s="38"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
       <c r="D96" s="21">
         <v>45610</v>
       </c>
@@ -2890,9 +2908,9 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="37"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="38"/>
+      <c r="A97" s="40"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
       <c r="D97" s="10"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
@@ -2902,10 +2920,10 @@
       <c r="J97" s="23"/>
     </row>
     <row r="98" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="37"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="38"/>
-      <c r="D98" s="46">
+      <c r="A98" s="40"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="35">
         <v>45611</v>
       </c>
       <c r="E98" s="30">
@@ -2927,18 +2945,218 @@
         <v>6</v>
       </c>
     </row>
+    <row r="99" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B100" s="41">
+        <v>45614</v>
+      </c>
+      <c r="C100" s="41">
+        <v>45618</v>
+      </c>
+      <c r="D100" s="24">
+        <v>45614</v>
+      </c>
+      <c r="E100" s="25">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F100" s="25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G100" s="26">
+        <v>4</v>
+      </c>
+      <c r="H100" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="I100" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J100" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="40"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="23"/>
+    </row>
+    <row r="102" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="40"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="36">
+        <v>45615</v>
+      </c>
+      <c r="E102" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="F102" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G102" s="1">
+        <v>4</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I102" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J102" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="40"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="23"/>
+    </row>
+    <row r="104" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="40"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="36">
+        <v>45616</v>
+      </c>
+      <c r="E104" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F104" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G104" s="1">
+        <v>4</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I104" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J104" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="40"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="23"/>
+    </row>
+    <row r="106" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="40"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="22"/>
+    </row>
+    <row r="107" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="40"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="23"/>
+    </row>
+    <row r="108" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="40"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="33"/>
+      <c r="J108" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="A90:A98"/>
-    <mergeCell ref="B90:B98"/>
-    <mergeCell ref="C90:C98"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J12:J13"/>
+  <mergeCells count="68">
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="B70:B79"/>
+    <mergeCell ref="C70:C79"/>
+    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="C81:C88"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="A53:A68"/>
+    <mergeCell ref="B53:B68"/>
+    <mergeCell ref="C53:C68"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="A36:A51"/>
+    <mergeCell ref="B36:B51"/>
+    <mergeCell ref="C36:C51"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="J47:J48"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="A18:A34"/>
@@ -2955,45 +3173,16 @@
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D27:D30"/>
-    <mergeCell ref="A36:A51"/>
-    <mergeCell ref="B36:B51"/>
-    <mergeCell ref="C36:C51"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="A53:A68"/>
-    <mergeCell ref="B53:B68"/>
-    <mergeCell ref="C53:C68"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="A70:A79"/>
-    <mergeCell ref="B70:B79"/>
-    <mergeCell ref="C70:C79"/>
-    <mergeCell ref="A81:A88"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="C81:C88"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="A90:A98"/>
+    <mergeCell ref="B90:B98"/>
+    <mergeCell ref="C90:C98"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1. Cronograma/Steven Pozo_cronograma.xlsx
+++ b/1. Cronograma/Steven Pozo_cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7. Septimo Semestre\1. Practicas\3. Perfil profesional\Practicas-PP\1. Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897BF06E-1B30-4EA8-AF36-A398A5A05D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACE4586-AB94-4492-B100-31E2A2B19864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Actividad</t>
   </si>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t>Contrucción de método POST para guardar a estudiantes con contraseña Nula.</t>
-  </si>
-  <si>
-    <t>Creación de APIS adicionales del CRUD, necesitadas por el FrontEnd</t>
   </si>
   <si>
     <t>31/11/2024</t>
@@ -334,6 +331,26 @@
   </si>
   <si>
     <t>Reestructuración del caso de uso RF01, RF02, RF03 y RF04 (diagramas)</t>
+  </si>
+  <si>
+    <t>Cambios y construcción de nuevas APIS necesitadas en el FrontEnd</t>
+  </si>
+  <si>
+    <t>Cambios y construcción de nuevas APIS necesitadas en el FrontEnd - Fase II
+Backup de la base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactorización de APIS (si es necesario)
+</t>
+  </si>
+  <si>
+    <t>Pruebas en entorno controlado (Máquina Virtual)</t>
+  </si>
+  <si>
+    <t>Creación de Unit test User y Book</t>
+  </si>
+  <si>
+    <t>Pruebas unitarias de user y book en spring boot en casos de pruebas exitosas</t>
   </si>
 </sst>
 </file>
@@ -377,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -526,11 +543,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -643,12 +750,6 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -658,6 +759,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,10 +780,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1012,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A38B84-5357-489F-A427-01102E9ABF42}">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K104" sqref="K104"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1060,16 +1200,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="42">
         <v>45565</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="42">
         <v>45569</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="43">
         <v>45565</v>
       </c>
       <c r="E2" s="7">
@@ -1085,19 +1225,19 @@
         <v>12</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="43">
+      <c r="J2" s="44">
         <v>6</v>
       </c>
       <c r="L2" s="1">
         <f>SUM(J2:J108)</f>
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="38"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1111,13 +1251,13 @@
         <v>13</v>
       </c>
       <c r="I3" s="17"/>
-      <c r="J3" s="43"/>
+      <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="38"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="7">
         <v>0.5</v>
       </c>
@@ -1131,12 +1271,12 @@
         <v>14</v>
       </c>
       <c r="I4" s="17"/>
-      <c r="J4" s="43"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -1146,10 +1286,10 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="38">
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43">
         <v>45566</v>
       </c>
       <c r="E6" s="7">
@@ -1165,15 +1305,15 @@
         <v>15</v>
       </c>
       <c r="I6" s="17"/>
-      <c r="J6" s="43">
+      <c r="J6" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="38"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="7">
         <v>0.5</v>
       </c>
@@ -1187,12 +1327,12 @@
         <v>16</v>
       </c>
       <c r="I7" s="17"/>
-      <c r="J7" s="43"/>
+      <c r="J7" s="44"/>
     </row>
     <row r="8" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -1202,10 +1342,10 @@
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="38">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43">
         <v>45567</v>
       </c>
       <c r="E9" s="7">
@@ -1221,15 +1361,15 @@
         <v>17</v>
       </c>
       <c r="I9" s="17"/>
-      <c r="J9" s="43">
+      <c r="J9" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="38"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -1243,12 +1383,12 @@
         <v>18</v>
       </c>
       <c r="I10" s="17"/>
-      <c r="J10" s="43"/>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1258,10 +1398,10 @@
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="38">
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43">
         <v>45568</v>
       </c>
       <c r="E12" s="7">
@@ -1277,15 +1417,15 @@
         <v>19</v>
       </c>
       <c r="I12" s="17"/>
-      <c r="J12" s="43">
+      <c r="J12" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="38"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -1299,12 +1439,12 @@
         <v>20</v>
       </c>
       <c r="I13" s="17"/>
-      <c r="J13" s="43"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -1314,10 +1454,10 @@
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="38">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43">
         <v>45569</v>
       </c>
       <c r="E15" s="7">
@@ -1333,15 +1473,15 @@
         <v>21</v>
       </c>
       <c r="I15" s="17"/>
-      <c r="J15" s="45">
+      <c r="J15" s="46">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="44"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1355,7 +1495,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="17"/>
-      <c r="J16" s="46"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
@@ -1370,16 +1510,16 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B18" s="42">
         <v>45572</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="42">
         <v>45575</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="43">
         <v>45572</v>
       </c>
       <c r="E18" s="7">
@@ -1395,15 +1535,15 @@
         <v>24</v>
       </c>
       <c r="I18" s="17"/>
-      <c r="J18" s="43">
+      <c r="J18" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="38"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="7">
         <v>0.375</v>
       </c>
@@ -1417,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="I19" s="17"/>
-      <c r="J19" s="43"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="38"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1437,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="I20" s="17"/>
-      <c r="J20" s="43"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="38"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="7">
         <v>0.5</v>
       </c>
@@ -1459,12 +1599,12 @@
       <c r="I21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="43"/>
+      <c r="J21" s="44"/>
     </row>
     <row r="22" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -1474,10 +1614,10 @@
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="38">
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43">
         <v>45573</v>
       </c>
       <c r="E23" s="7">
@@ -1493,15 +1633,15 @@
         <v>29</v>
       </c>
       <c r="I23" s="17"/>
-      <c r="J23" s="43">
+      <c r="J23" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="38"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -1515,13 +1655,13 @@
         <v>30</v>
       </c>
       <c r="I24" s="17"/>
-      <c r="J24" s="43"/>
+      <c r="J24" s="44"/>
     </row>
     <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="38"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -1535,12 +1675,12 @@
         <v>31</v>
       </c>
       <c r="I25" s="17"/>
-      <c r="J25" s="43"/>
+      <c r="J25" s="44"/>
     </row>
     <row r="26" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -1550,10 +1690,10 @@
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="38">
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43">
         <v>45574</v>
       </c>
       <c r="E27" s="16">
@@ -1569,15 +1709,15 @@
         <v>32</v>
       </c>
       <c r="I27" s="17"/>
-      <c r="J27" s="43">
+      <c r="J27" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="38"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="7">
         <v>0.375</v>
       </c>
@@ -1591,13 +1731,13 @@
         <v>33</v>
       </c>
       <c r="I28" s="17"/>
-      <c r="J28" s="43"/>
+      <c r="J28" s="44"/>
     </row>
     <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="38"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1611,13 +1751,13 @@
         <v>34</v>
       </c>
       <c r="I29" s="17"/>
-      <c r="J29" s="43"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="38"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="7">
         <v>0.5</v>
       </c>
@@ -1631,12 +1771,12 @@
         <v>35</v>
       </c>
       <c r="I30" s="17"/>
-      <c r="J30" s="43"/>
+      <c r="J30" s="44"/>
     </row>
     <row r="31" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1646,10 +1786,10 @@
       <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="47"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="38">
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43">
         <v>45575</v>
       </c>
       <c r="E32" s="7">
@@ -1665,15 +1805,15 @@
         <v>36</v>
       </c>
       <c r="I32" s="17"/>
-      <c r="J32" s="43">
+      <c r="J32" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="38"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1687,13 +1827,13 @@
         <v>37</v>
       </c>
       <c r="I33" s="17"/>
-      <c r="J33" s="43"/>
+      <c r="J33" s="44"/>
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="38"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="7">
         <v>0.5</v>
       </c>
@@ -1707,7 +1847,7 @@
         <v>38</v>
       </c>
       <c r="I34" s="17"/>
-      <c r="J34" s="43"/>
+      <c r="J34" s="44"/>
     </row>
     <row r="35" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
@@ -1722,16 +1862,16 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="48">
+      <c r="B36" s="42">
         <v>45579</v>
       </c>
-      <c r="C36" s="48">
+      <c r="C36" s="42">
         <v>45583</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="43">
         <v>45579</v>
       </c>
       <c r="E36" s="7">
@@ -1747,15 +1887,15 @@
         <v>40</v>
       </c>
       <c r="I36" s="17"/>
-      <c r="J36" s="43">
+      <c r="J36" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="38"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -1769,13 +1909,13 @@
         <v>41</v>
       </c>
       <c r="I37" s="17"/>
-      <c r="J37" s="43"/>
+      <c r="J37" s="44"/>
     </row>
     <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="47"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="38"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="7">
         <v>0.625</v>
       </c>
@@ -1789,12 +1929,12 @@
         <v>42</v>
       </c>
       <c r="I38" s="17"/>
-      <c r="J38" s="43"/>
+      <c r="J38" s="44"/>
     </row>
     <row r="39" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
@@ -1804,10 +1944,10 @@
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="47"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="38">
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43">
         <v>45580</v>
       </c>
       <c r="E40" s="7">
@@ -1823,15 +1963,15 @@
         <v>43</v>
       </c>
       <c r="I40" s="17"/>
-      <c r="J40" s="43">
+      <c r="J40" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="47"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="38"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -1845,13 +1985,13 @@
         <v>44</v>
       </c>
       <c r="I41" s="17"/>
-      <c r="J41" s="43"/>
+      <c r="J41" s="44"/>
     </row>
     <row r="42" spans="1:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="38"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="7">
         <v>0.625</v>
       </c>
@@ -1865,12 +2005,12 @@
         <v>45</v>
       </c>
       <c r="I42" s="17"/>
-      <c r="J42" s="43"/>
+      <c r="J42" s="44"/>
     </row>
     <row r="43" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="47"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -1880,10 +2020,10 @@
       <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="47"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="38">
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="43">
         <v>45581</v>
       </c>
       <c r="E44" s="7">
@@ -1899,15 +2039,15 @@
         <v>46</v>
       </c>
       <c r="I44" s="17"/>
-      <c r="J44" s="43">
+      <c r="J44" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="47"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="38"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="7">
         <v>0.625</v>
       </c>
@@ -1921,12 +2061,12 @@
         <v>47</v>
       </c>
       <c r="I45" s="17"/>
-      <c r="J45" s="43"/>
+      <c r="J45" s="44"/>
     </row>
     <row r="46" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="47"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -1936,10 +2076,10 @@
       <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="47"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="38">
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="43">
         <v>45582</v>
       </c>
       <c r="E47" s="7">
@@ -1955,15 +2095,15 @@
         <v>48</v>
       </c>
       <c r="I47" s="17"/>
-      <c r="J47" s="43">
+      <c r="J47" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="47"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="38"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="43"/>
       <c r="E48" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -1979,12 +2119,12 @@
       <c r="I48" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J48" s="43"/>
+      <c r="J48" s="44"/>
     </row>
     <row r="49" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="47"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -1994,10 +2134,10 @@
       <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="47"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="38">
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="43">
         <v>45583</v>
       </c>
       <c r="E50" s="7">
@@ -2013,15 +2153,15 @@
         <v>51</v>
       </c>
       <c r="I50" s="17"/>
-      <c r="J50" s="43">
+      <c r="J50" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="47"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="38"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="43"/>
       <c r="E51" s="7">
         <v>0.625</v>
       </c>
@@ -2035,7 +2175,7 @@
         <v>52</v>
       </c>
       <c r="I51" s="17"/>
-      <c r="J51" s="43"/>
+      <c r="J51" s="44"/>
     </row>
     <row r="52" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
@@ -2050,16 +2190,16 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="48">
+      <c r="B53" s="42">
         <v>45586</v>
       </c>
-      <c r="C53" s="48">
+      <c r="C53" s="42">
         <v>45590</v>
       </c>
-      <c r="D53" s="38">
+      <c r="D53" s="43">
         <v>45586</v>
       </c>
       <c r="E53" s="7">
@@ -2075,15 +2215,15 @@
         <v>54</v>
       </c>
       <c r="I53" s="17"/>
-      <c r="J53" s="43">
+      <c r="J53" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="47"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="38"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="43"/>
       <c r="E54" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2097,12 +2237,12 @@
         <v>55</v>
       </c>
       <c r="I54" s="17"/>
-      <c r="J54" s="43"/>
+      <c r="J54" s="44"/>
     </row>
     <row r="55" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="47"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
       <c r="D55" s="10"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -2112,10 +2252,10 @@
       <c r="J55" s="14"/>
     </row>
     <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="47"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="38">
+      <c r="A56" s="41"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="43">
         <v>45587</v>
       </c>
       <c r="E56" s="7">
@@ -2131,15 +2271,15 @@
         <v>56</v>
       </c>
       <c r="I56" s="17"/>
-      <c r="J56" s="43">
+      <c r="J56" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="47"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="38"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="43"/>
       <c r="E57" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -2153,13 +2293,13 @@
         <v>57</v>
       </c>
       <c r="I57" s="17"/>
-      <c r="J57" s="43"/>
+      <c r="J57" s="44"/>
     </row>
     <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="47"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="38"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="43"/>
       <c r="E58" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2173,12 +2313,12 @@
         <v>58</v>
       </c>
       <c r="I58" s="17"/>
-      <c r="J58" s="43"/>
+      <c r="J58" s="44"/>
     </row>
     <row r="59" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="47"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
       <c r="D59" s="10"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
@@ -2188,10 +2328,10 @@
       <c r="J59" s="14"/>
     </row>
     <row r="60" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="47"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="38">
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="43">
         <v>45588</v>
       </c>
       <c r="E60" s="7">
@@ -2207,15 +2347,15 @@
         <v>59</v>
       </c>
       <c r="I60" s="17"/>
-      <c r="J60" s="43">
+      <c r="J60" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A61" s="47"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="38"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="43"/>
       <c r="E61" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -2231,13 +2371,13 @@
       <c r="I61" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J61" s="43"/>
+      <c r="J61" s="44"/>
     </row>
     <row r="62" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="47"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="38"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="43"/>
       <c r="E62" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2251,12 +2391,12 @@
         <v>62</v>
       </c>
       <c r="I62" s="17"/>
-      <c r="J62" s="43"/>
+      <c r="J62" s="44"/>
     </row>
     <row r="63" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="47"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
       <c r="D63" s="10"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
@@ -2266,10 +2406,10 @@
       <c r="J63" s="14"/>
     </row>
     <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="47"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="38">
+      <c r="A64" s="41"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="43">
         <v>45589</v>
       </c>
       <c r="E64" s="7">
@@ -2285,15 +2425,15 @@
         <v>63</v>
       </c>
       <c r="I64" s="17"/>
-      <c r="J64" s="43">
+      <c r="J64" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="47"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="38"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="43"/>
       <c r="E65" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2307,12 +2447,12 @@
         <v>64</v>
       </c>
       <c r="I65" s="17"/>
-      <c r="J65" s="43"/>
+      <c r="J65" s="44"/>
     </row>
     <row r="66" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="47"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
       <c r="D66" s="10"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
@@ -2322,10 +2462,10 @@
       <c r="J66" s="14"/>
     </row>
     <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="47"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="38">
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="43">
         <v>45590</v>
       </c>
       <c r="E67" s="7">
@@ -2341,15 +2481,15 @@
         <v>65</v>
       </c>
       <c r="I67" s="17"/>
-      <c r="J67" s="43">
+      <c r="J67" s="44">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="47"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="38"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="43"/>
       <c r="E68" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2363,7 +2503,7 @@
         <v>66</v>
       </c>
       <c r="I68" s="17"/>
-      <c r="J68" s="43"/>
+      <c r="J68" s="44"/>
     </row>
     <row r="69" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
@@ -2378,16 +2518,16 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="47" t="s">
+      <c r="A70" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="42">
+        <v>45593</v>
+      </c>
+      <c r="C70" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="48">
-        <v>45593</v>
-      </c>
-      <c r="C70" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D70" s="38">
+      <c r="D70" s="43">
         <v>45593</v>
       </c>
       <c r="E70" s="7">
@@ -2400,18 +2540,18 @@
         <v>2</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I70" s="17"/>
-      <c r="J70" s="43">
+      <c r="J70" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="47"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="38"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="43"/>
       <c r="E71" s="7">
         <v>0.375</v>
       </c>
@@ -2422,15 +2562,15 @@
         <v>2</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I71" s="17"/>
-      <c r="J71" s="43"/>
+      <c r="J71" s="44"/>
     </row>
     <row r="72" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="47"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
       <c r="D72" s="10"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
@@ -2440,10 +2580,10 @@
       <c r="J72" s="14"/>
     </row>
     <row r="73" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="47"/>
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="38">
+      <c r="A73" s="41"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="43">
         <v>45594</v>
       </c>
       <c r="E73" s="7">
@@ -2456,18 +2596,18 @@
         <v>2</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I73" s="17"/>
-      <c r="J73" s="43">
+      <c r="J73" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="47"/>
-      <c r="B74" s="48"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="38"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="43"/>
       <c r="E74" s="7">
         <v>0.70833333333333337</v>
       </c>
@@ -2478,16 +2618,16 @@
         <v>1</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I74" s="17"/>
-      <c r="J74" s="43"/>
+      <c r="J74" s="44"/>
     </row>
     <row r="75" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="47"/>
-      <c r="B75" s="48"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="38"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="43"/>
       <c r="E75" s="7">
         <v>0.75</v>
       </c>
@@ -2498,15 +2638,15 @@
         <v>1</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I75" s="17"/>
-      <c r="J75" s="43"/>
+      <c r="J75" s="44"/>
     </row>
     <row r="76" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="47"/>
-      <c r="B76" s="48"/>
-      <c r="C76" s="48"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
       <c r="D76" s="10"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
@@ -2516,9 +2656,9 @@
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="47"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="48"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
       <c r="D77" s="21">
         <v>45595</v>
       </c>
@@ -2532,7 +2672,7 @@
         <v>4</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="20">
@@ -2540,9 +2680,9 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="47"/>
-      <c r="B78" s="48"/>
-      <c r="C78" s="48"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
       <c r="D78" s="10"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
@@ -2552,9 +2692,9 @@
       <c r="J78" s="14"/>
     </row>
     <row r="79" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="47"/>
-      <c r="B79" s="48"/>
-      <c r="C79" s="48"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
       <c r="D79" s="21">
         <v>45596</v>
       </c>
@@ -2568,10 +2708,10 @@
         <v>6</v>
       </c>
       <c r="H79" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I79" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="I79" s="17" t="s">
-        <v>76</v>
       </c>
       <c r="J79" s="20">
         <v>6</v>
@@ -2590,13 +2730,13 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B81" s="41">
+      <c r="A81" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="39">
         <v>45601</v>
       </c>
-      <c r="C81" s="41">
+      <c r="C81" s="39">
         <v>45604</v>
       </c>
       <c r="D81" s="21">
@@ -2612,7 +2752,7 @@
         <v>4</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I81" s="17"/>
       <c r="J81" s="20">
@@ -2620,9 +2760,9 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="41"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
       <c r="D82" s="10"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
@@ -2632,9 +2772,9 @@
       <c r="J82" s="14"/>
     </row>
     <row r="83" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
       <c r="D83" s="21">
         <v>45602</v>
       </c>
@@ -2648,7 +2788,7 @@
         <v>4</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I83" s="17"/>
       <c r="J83" s="20">
@@ -2656,9 +2796,9 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="41"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
       <c r="D84" s="10"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
@@ -2668,9 +2808,9 @@
       <c r="J84" s="14"/>
     </row>
     <row r="85" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
-      <c r="B85" s="41"/>
-      <c r="C85" s="41"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
       <c r="D85" s="21">
         <v>45603</v>
       </c>
@@ -2684,7 +2824,7 @@
         <v>4</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I85" s="17"/>
       <c r="J85" s="22">
@@ -2692,9 +2832,9 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
       <c r="D86" s="10"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -2704,10 +2844,10 @@
       <c r="J86" s="23"/>
     </row>
     <row r="87" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="38">
+      <c r="A87" s="38"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="43">
         <v>45604</v>
       </c>
       <c r="E87" s="7">
@@ -2720,20 +2860,20 @@
         <v>4</v>
       </c>
       <c r="H87" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I87" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="I87" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J87" s="39">
+      <c r="J87" s="48">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="38"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="43"/>
       <c r="E88" s="7">
         <v>0.70833333333333337</v>
       </c>
@@ -2744,10 +2884,10 @@
         <v>2</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I88" s="17"/>
-      <c r="J88" s="39"/>
+      <c r="J88" s="48"/>
     </row>
     <row r="89" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
@@ -2762,13 +2902,13 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B90" s="41">
+      <c r="A90" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" s="39">
         <v>45607</v>
       </c>
-      <c r="C90" s="41">
+      <c r="C90" s="39">
         <v>45611</v>
       </c>
       <c r="D90" s="24">
@@ -2784,19 +2924,19 @@
         <v>4</v>
       </c>
       <c r="H90" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I90" s="28" t="s">
         <v>83</v>
-      </c>
-      <c r="I90" s="28" t="s">
-        <v>84</v>
       </c>
       <c r="J90" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
       <c r="D91" s="10"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
@@ -2806,9 +2946,9 @@
       <c r="J91" s="23"/>
     </row>
     <row r="92" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="42"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="40"/>
       <c r="D92" s="36">
         <v>45608</v>
       </c>
@@ -2822,19 +2962,19 @@
         <v>4</v>
       </c>
       <c r="H92" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I92" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="I92" s="17" t="s">
-        <v>86</v>
       </c>
       <c r="J92" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="42"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="40"/>
       <c r="D93" s="37"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
@@ -2844,9 +2984,9 @@
       <c r="J93" s="23"/>
     </row>
     <row r="94" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="42"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="40"/>
       <c r="D94" s="36">
         <v>45609</v>
       </c>
@@ -2860,19 +3000,19 @@
         <v>4</v>
       </c>
       <c r="H94" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I94" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="I94" s="17" t="s">
-        <v>88</v>
       </c>
       <c r="J94" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
+      <c r="A95" s="38"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
       <c r="D95" s="10"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
@@ -2882,9 +3022,9 @@
       <c r="J95" s="23"/>
     </row>
     <row r="96" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
       <c r="D96" s="21">
         <v>45610</v>
       </c>
@@ -2898,19 +3038,19 @@
         <v>4</v>
       </c>
       <c r="H96" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I96" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="I96" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="J96" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
       <c r="D97" s="10"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
@@ -2920,9 +3060,9 @@
       <c r="J97" s="23"/>
     </row>
     <row r="98" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="41"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
       <c r="D98" s="35">
         <v>45611</v>
       </c>
@@ -2936,10 +3076,10 @@
         <v>6</v>
       </c>
       <c r="H98" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I98" s="33" t="s">
         <v>91</v>
-      </c>
-      <c r="I98" s="33" t="s">
-        <v>92</v>
       </c>
       <c r="J98" s="34">
         <v>6</v>
@@ -2958,16 +3098,16 @@
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B100" s="41">
+      <c r="A100" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="52">
         <v>45614</v>
       </c>
-      <c r="C100" s="41">
+      <c r="C100" s="49">
         <v>45618</v>
       </c>
-      <c r="D100" s="24">
+      <c r="D100" s="58">
         <v>45614</v>
       </c>
       <c r="E100" s="25">
@@ -2980,20 +3120,20 @@
         <v>4</v>
       </c>
       <c r="H100" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I100" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J100" s="29">
         <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
-      <c r="B101" s="41"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="10"/>
+      <c r="A101" s="56"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="37"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
       <c r="G101" s="12"/>
@@ -3002,9 +3142,9 @@
       <c r="J101" s="23"/>
     </row>
     <row r="102" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
-      <c r="B102" s="41"/>
-      <c r="C102" s="42"/>
+      <c r="A102" s="56"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="50"/>
       <c r="D102" s="36">
         <v>45615</v>
       </c>
@@ -3018,19 +3158,19 @@
         <v>4</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I102" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J102" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
-      <c r="B103" s="41"/>
-      <c r="C103" s="42"/>
+      <c r="A103" s="56"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="50"/>
       <c r="D103" s="37"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
@@ -3040,9 +3180,9 @@
       <c r="J103" s="23"/>
     </row>
     <row r="104" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
-      <c r="B104" s="41"/>
-      <c r="C104" s="42"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="50"/>
       <c r="D104" s="36">
         <v>45616</v>
       </c>
@@ -3056,20 +3196,20 @@
         <v>4</v>
       </c>
       <c r="H104" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I104" s="17" t="s">
         <v>97</v>
-      </c>
-      <c r="I104" s="17" t="s">
-        <v>98</v>
       </c>
       <c r="J104" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
-      <c r="B105" s="41"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="10"/>
+      <c r="A105" s="56"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="37"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" s="12"/>
@@ -3078,22 +3218,36 @@
       <c r="J105" s="23"/>
     </row>
     <row r="106" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="22"/>
+      <c r="A106" s="56"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="50"/>
+      <c r="D106" s="36">
+        <v>45617</v>
+      </c>
+      <c r="E106" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="F106" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G106" s="1">
+        <v>4</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I106" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="J106" s="22">
+        <v>4</v>
+      </c>
     </row>
     <row r="107" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
-      <c r="B107" s="41"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="10"/>
+      <c r="A107" s="56"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="50"/>
+      <c r="D107" s="37"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="G107" s="12"/>
@@ -3102,10 +3256,10 @@
       <c r="J107" s="23"/>
     </row>
     <row r="108" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
-      <c r="B108" s="41"/>
-      <c r="C108" s="41"/>
-      <c r="D108" s="35"/>
+      <c r="A108" s="57"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="51"/>
+      <c r="D108" s="59"/>
       <c r="E108" s="30"/>
       <c r="F108" s="30"/>
       <c r="G108" s="31"/>
@@ -3115,48 +3269,16 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="A70:A79"/>
-    <mergeCell ref="B70:B79"/>
-    <mergeCell ref="C70:C79"/>
-    <mergeCell ref="A81:A88"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="C81:C88"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="A53:A68"/>
-    <mergeCell ref="B53:B68"/>
-    <mergeCell ref="C53:C68"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="A36:A51"/>
-    <mergeCell ref="B36:B51"/>
-    <mergeCell ref="C36:C51"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="A90:A98"/>
+    <mergeCell ref="B90:B98"/>
+    <mergeCell ref="C90:C98"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J12:J13"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="A18:A34"/>
@@ -3173,16 +3295,48 @@
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D27:D30"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="A90:A98"/>
-    <mergeCell ref="B90:B98"/>
-    <mergeCell ref="C90:C98"/>
+    <mergeCell ref="A36:A51"/>
+    <mergeCell ref="B36:B51"/>
+    <mergeCell ref="C36:C51"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="A53:A68"/>
+    <mergeCell ref="B53:B68"/>
+    <mergeCell ref="C53:C68"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="B70:B79"/>
+    <mergeCell ref="C70:C79"/>
+    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="C81:C88"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1. Cronograma/Steven Pozo_cronograma.xlsx
+++ b/1. Cronograma/Steven Pozo_cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7. Septimo Semestre\1. Practicas\3. Perfil profesional\Practicas-PP\1. Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACE4586-AB94-4492-B100-31E2A2B19864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE4F45A-DA78-438C-83D8-275522B666B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,6 +750,18 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -759,48 +771,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -810,10 +798,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1200,16 +1200,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="50">
         <v>45565</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="50">
         <v>45569</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="40">
         <v>45565</v>
       </c>
       <c r="E2" s="7">
@@ -1225,7 +1225,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="44">
+      <c r="J2" s="45">
         <v>6</v>
       </c>
       <c r="L2" s="1">
@@ -1234,10 +1234,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1251,13 +1251,13 @@
         <v>13</v>
       </c>
       <c r="I3" s="17"/>
-      <c r="J3" s="44"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="7">
         <v>0.5</v>
       </c>
@@ -1271,12 +1271,12 @@
         <v>14</v>
       </c>
       <c r="I4" s="17"/>
-      <c r="J4" s="44"/>
+      <c r="J4" s="45"/>
     </row>
     <row r="5" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -1286,10 +1286,10 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="40">
         <v>45566</v>
       </c>
       <c r="E6" s="7">
@@ -1305,15 +1305,15 @@
         <v>15</v>
       </c>
       <c r="I6" s="17"/>
-      <c r="J6" s="44">
+      <c r="J6" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="7">
         <v>0.5</v>
       </c>
@@ -1327,12 +1327,12 @@
         <v>16</v>
       </c>
       <c r="I7" s="17"/>
-      <c r="J7" s="44"/>
+      <c r="J7" s="45"/>
     </row>
     <row r="8" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -1342,10 +1342,10 @@
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43">
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="40">
         <v>45567</v>
       </c>
       <c r="E9" s="7">
@@ -1361,15 +1361,15 @@
         <v>17</v>
       </c>
       <c r="I9" s="17"/>
-      <c r="J9" s="44">
+      <c r="J9" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -1383,12 +1383,12 @@
         <v>18</v>
       </c>
       <c r="I10" s="17"/>
-      <c r="J10" s="44"/>
+      <c r="J10" s="45"/>
     </row>
     <row r="11" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1398,10 +1398,10 @@
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43">
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="40">
         <v>45568</v>
       </c>
       <c r="E12" s="7">
@@ -1417,15 +1417,15 @@
         <v>19</v>
       </c>
       <c r="I12" s="17"/>
-      <c r="J12" s="44">
+      <c r="J12" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -1439,12 +1439,12 @@
         <v>20</v>
       </c>
       <c r="I13" s="17"/>
-      <c r="J13" s="44"/>
+      <c r="J13" s="45"/>
     </row>
     <row r="14" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -1454,10 +1454,10 @@
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43">
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="40">
         <v>45569</v>
       </c>
       <c r="E15" s="7">
@@ -1473,15 +1473,15 @@
         <v>21</v>
       </c>
       <c r="I15" s="17"/>
-      <c r="J15" s="46">
+      <c r="J15" s="47">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="45"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="17"/>
-      <c r="J16" s="47"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
@@ -1510,16 +1510,16 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="50">
         <v>45572</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="50">
         <v>45575</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="40">
         <v>45572</v>
       </c>
       <c r="E18" s="7">
@@ -1535,15 +1535,15 @@
         <v>24</v>
       </c>
       <c r="I18" s="17"/>
-      <c r="J18" s="44">
+      <c r="J18" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="7">
         <v>0.375</v>
       </c>
@@ -1557,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="I19" s="17"/>
-      <c r="J19" s="44"/>
+      <c r="J19" s="45"/>
     </row>
     <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1577,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="I20" s="17"/>
-      <c r="J20" s="44"/>
+      <c r="J20" s="45"/>
     </row>
     <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="7">
         <v>0.5</v>
       </c>
@@ -1599,12 +1599,12 @@
       <c r="I21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="44"/>
+      <c r="J21" s="45"/>
     </row>
     <row r="22" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -1614,10 +1614,10 @@
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43">
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="40">
         <v>45573</v>
       </c>
       <c r="E23" s="7">
@@ -1633,15 +1633,15 @@
         <v>29</v>
       </c>
       <c r="I23" s="17"/>
-      <c r="J23" s="44">
+      <c r="J23" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -1655,13 +1655,13 @@
         <v>30</v>
       </c>
       <c r="I24" s="17"/>
-      <c r="J24" s="44"/>
+      <c r="J24" s="45"/>
     </row>
     <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -1675,12 +1675,12 @@
         <v>31</v>
       </c>
       <c r="I25" s="17"/>
-      <c r="J25" s="44"/>
+      <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -1690,10 +1690,10 @@
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43">
+      <c r="A27" s="49"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="40">
         <v>45574</v>
       </c>
       <c r="E27" s="16">
@@ -1709,15 +1709,15 @@
         <v>32</v>
       </c>
       <c r="I27" s="17"/>
-      <c r="J27" s="44">
+      <c r="J27" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="7">
         <v>0.375</v>
       </c>
@@ -1731,13 +1731,13 @@
         <v>33</v>
       </c>
       <c r="I28" s="17"/>
-      <c r="J28" s="44"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="43"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1751,13 +1751,13 @@
         <v>34</v>
       </c>
       <c r="I29" s="17"/>
-      <c r="J29" s="44"/>
+      <c r="J29" s="45"/>
     </row>
     <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="43"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="7">
         <v>0.5</v>
       </c>
@@ -1771,12 +1771,12 @@
         <v>35</v>
       </c>
       <c r="I30" s="17"/>
-      <c r="J30" s="44"/>
+      <c r="J30" s="45"/>
     </row>
     <row r="31" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1786,10 +1786,10 @@
       <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43">
+      <c r="A32" s="49"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="40">
         <v>45575</v>
       </c>
       <c r="E32" s="7">
@@ -1805,15 +1805,15 @@
         <v>36</v>
       </c>
       <c r="I32" s="17"/>
-      <c r="J32" s="44">
+      <c r="J32" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1827,13 +1827,13 @@
         <v>37</v>
       </c>
       <c r="I33" s="17"/>
-      <c r="J33" s="44"/>
+      <c r="J33" s="45"/>
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="7">
         <v>0.5</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>38</v>
       </c>
       <c r="I34" s="17"/>
-      <c r="J34" s="44"/>
+      <c r="J34" s="45"/>
     </row>
     <row r="35" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
@@ -1862,16 +1862,16 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="42">
+      <c r="B36" s="50">
         <v>45579</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="50">
         <v>45583</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="40">
         <v>45579</v>
       </c>
       <c r="E36" s="7">
@@ -1887,15 +1887,15 @@
         <v>40</v>
       </c>
       <c r="I36" s="17"/>
-      <c r="J36" s="44">
+      <c r="J36" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -1909,13 +1909,13 @@
         <v>41</v>
       </c>
       <c r="I37" s="17"/>
-      <c r="J37" s="44"/>
+      <c r="J37" s="45"/>
     </row>
     <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="7">
         <v>0.625</v>
       </c>
@@ -1929,12 +1929,12 @@
         <v>42</v>
       </c>
       <c r="I38" s="17"/>
-      <c r="J38" s="44"/>
+      <c r="J38" s="45"/>
     </row>
     <row r="39" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
@@ -1944,10 +1944,10 @@
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="41"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="43">
+      <c r="A40" s="49"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="40">
         <v>45580</v>
       </c>
       <c r="E40" s="7">
@@ -1963,15 +1963,15 @@
         <v>43</v>
       </c>
       <c r="I40" s="17"/>
-      <c r="J40" s="44">
+      <c r="J40" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="43"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="40"/>
       <c r="E41" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -1985,13 +1985,13 @@
         <v>44</v>
       </c>
       <c r="I41" s="17"/>
-      <c r="J41" s="44"/>
+      <c r="J41" s="45"/>
     </row>
     <row r="42" spans="1:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="43"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="40"/>
       <c r="E42" s="7">
         <v>0.625</v>
       </c>
@@ -2005,12 +2005,12 @@
         <v>45</v>
       </c>
       <c r="I42" s="17"/>
-      <c r="J42" s="44"/>
+      <c r="J42" s="45"/>
     </row>
     <row r="43" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
       <c r="D43" s="10"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -2020,10 +2020,10 @@
       <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="41"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="43">
+      <c r="A44" s="49"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="40">
         <v>45581</v>
       </c>
       <c r="E44" s="7">
@@ -2039,15 +2039,15 @@
         <v>46</v>
       </c>
       <c r="I44" s="17"/>
-      <c r="J44" s="44">
+      <c r="J44" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="43"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="40"/>
       <c r="E45" s="7">
         <v>0.625</v>
       </c>
@@ -2061,12 +2061,12 @@
         <v>47</v>
       </c>
       <c r="I45" s="17"/>
-      <c r="J45" s="44"/>
+      <c r="J45" s="45"/>
     </row>
     <row r="46" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="41"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
       <c r="D46" s="10"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -2076,10 +2076,10 @@
       <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="43">
+      <c r="A47" s="49"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="40">
         <v>45582</v>
       </c>
       <c r="E47" s="7">
@@ -2095,15 +2095,15 @@
         <v>48</v>
       </c>
       <c r="I47" s="17"/>
-      <c r="J47" s="44">
+      <c r="J47" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="40"/>
       <c r="E48" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -2119,12 +2119,12 @@
       <c r="I48" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J48" s="44"/>
+      <c r="J48" s="45"/>
     </row>
     <row r="49" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
       <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -2134,10 +2134,10 @@
       <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="41"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="43">
+      <c r="A50" s="49"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="40">
         <v>45583</v>
       </c>
       <c r="E50" s="7">
@@ -2153,15 +2153,15 @@
         <v>51</v>
       </c>
       <c r="I50" s="17"/>
-      <c r="J50" s="44">
+      <c r="J50" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="43"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="40"/>
       <c r="E51" s="7">
         <v>0.625</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>52</v>
       </c>
       <c r="I51" s="17"/>
-      <c r="J51" s="44"/>
+      <c r="J51" s="45"/>
     </row>
     <row r="52" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
@@ -2190,16 +2190,16 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="42">
+      <c r="B53" s="50">
         <v>45586</v>
       </c>
-      <c r="C53" s="42">
+      <c r="C53" s="50">
         <v>45590</v>
       </c>
-      <c r="D53" s="43">
+      <c r="D53" s="40">
         <v>45586</v>
       </c>
       <c r="E53" s="7">
@@ -2215,15 +2215,15 @@
         <v>54</v>
       </c>
       <c r="I53" s="17"/>
-      <c r="J53" s="44">
+      <c r="J53" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="41"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="43"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="40"/>
       <c r="E54" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2237,12 +2237,12 @@
         <v>55</v>
       </c>
       <c r="I54" s="17"/>
-      <c r="J54" s="44"/>
+      <c r="J54" s="45"/>
     </row>
     <row r="55" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="10"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -2252,10 +2252,10 @@
       <c r="J55" s="14"/>
     </row>
     <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="41"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="43">
+      <c r="A56" s="49"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="40">
         <v>45587</v>
       </c>
       <c r="E56" s="7">
@@ -2271,15 +2271,15 @@
         <v>56</v>
       </c>
       <c r="I56" s="17"/>
-      <c r="J56" s="44">
+      <c r="J56" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="43"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="40"/>
       <c r="E57" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -2293,13 +2293,13 @@
         <v>57</v>
       </c>
       <c r="I57" s="17"/>
-      <c r="J57" s="44"/>
+      <c r="J57" s="45"/>
     </row>
     <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="41"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="43"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="40"/>
       <c r="E58" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2313,12 +2313,12 @@
         <v>58</v>
       </c>
       <c r="I58" s="17"/>
-      <c r="J58" s="44"/>
+      <c r="J58" s="45"/>
     </row>
     <row r="59" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
       <c r="D59" s="10"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
@@ -2328,10 +2328,10 @@
       <c r="J59" s="14"/>
     </row>
     <row r="60" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="41"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="43">
+      <c r="A60" s="49"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="40">
         <v>45588</v>
       </c>
       <c r="E60" s="7">
@@ -2347,15 +2347,15 @@
         <v>59</v>
       </c>
       <c r="I60" s="17"/>
-      <c r="J60" s="44">
+      <c r="J60" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A61" s="41"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="43"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="40"/>
       <c r="E61" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -2371,13 +2371,13 @@
       <c r="I61" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J61" s="44"/>
+      <c r="J61" s="45"/>
     </row>
     <row r="62" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="41"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="43"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="40"/>
       <c r="E62" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2391,12 +2391,12 @@
         <v>62</v>
       </c>
       <c r="I62" s="17"/>
-      <c r="J62" s="44"/>
+      <c r="J62" s="45"/>
     </row>
     <row r="63" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="41"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
       <c r="D63" s="10"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
@@ -2406,10 +2406,10 @@
       <c r="J63" s="14"/>
     </row>
     <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="41"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="43">
+      <c r="A64" s="49"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="40">
         <v>45589</v>
       </c>
       <c r="E64" s="7">
@@ -2425,15 +2425,15 @@
         <v>63</v>
       </c>
       <c r="I64" s="17"/>
-      <c r="J64" s="44">
+      <c r="J64" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="41"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="43"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="40"/>
       <c r="E65" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2447,12 +2447,12 @@
         <v>64</v>
       </c>
       <c r="I65" s="17"/>
-      <c r="J65" s="44"/>
+      <c r="J65" s="45"/>
     </row>
     <row r="66" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="50"/>
       <c r="D66" s="10"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
@@ -2462,10 +2462,10 @@
       <c r="J66" s="14"/>
     </row>
     <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="41"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="43">
+      <c r="A67" s="49"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="40">
         <v>45590</v>
       </c>
       <c r="E67" s="7">
@@ -2481,15 +2481,15 @@
         <v>65</v>
       </c>
       <c r="I67" s="17"/>
-      <c r="J67" s="44">
+      <c r="J67" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="41"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="43"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="40"/>
       <c r="E68" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>66</v>
       </c>
       <c r="I68" s="17"/>
-      <c r="J68" s="44"/>
+      <c r="J68" s="45"/>
     </row>
     <row r="69" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
@@ -2518,16 +2518,16 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="B70" s="42">
+      <c r="B70" s="50">
         <v>45593</v>
       </c>
-      <c r="C70" s="42" t="s">
+      <c r="C70" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="D70" s="43">
+      <c r="D70" s="40">
         <v>45593</v>
       </c>
       <c r="E70" s="7">
@@ -2543,15 +2543,15 @@
         <v>68</v>
       </c>
       <c r="I70" s="17"/>
-      <c r="J70" s="44">
+      <c r="J70" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="41"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="43"/>
+      <c r="A71" s="49"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="40"/>
       <c r="E71" s="7">
         <v>0.375</v>
       </c>
@@ -2565,12 +2565,12 @@
         <v>69</v>
       </c>
       <c r="I71" s="17"/>
-      <c r="J71" s="44"/>
+      <c r="J71" s="45"/>
     </row>
     <row r="72" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="41"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
       <c r="D72" s="10"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
@@ -2580,10 +2580,10 @@
       <c r="J72" s="14"/>
     </row>
     <row r="73" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="41"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="43">
+      <c r="A73" s="49"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="40">
         <v>45594</v>
       </c>
       <c r="E73" s="7">
@@ -2599,15 +2599,15 @@
         <v>70</v>
       </c>
       <c r="I73" s="17"/>
-      <c r="J73" s="44">
+      <c r="J73" s="45">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="41"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="43"/>
+      <c r="A74" s="49"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="40"/>
       <c r="E74" s="7">
         <v>0.70833333333333337</v>
       </c>
@@ -2621,13 +2621,13 @@
         <v>71</v>
       </c>
       <c r="I74" s="17"/>
-      <c r="J74" s="44"/>
+      <c r="J74" s="45"/>
     </row>
     <row r="75" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="41"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="43"/>
+      <c r="A75" s="49"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="40"/>
       <c r="E75" s="7">
         <v>0.75</v>
       </c>
@@ -2641,12 +2641,12 @@
         <v>72</v>
       </c>
       <c r="I75" s="17"/>
-      <c r="J75" s="44"/>
+      <c r="J75" s="45"/>
     </row>
     <row r="76" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="41"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
+      <c r="A76" s="49"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
       <c r="D76" s="10"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
@@ -2656,9 +2656,9 @@
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="41"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
       <c r="D77" s="21">
         <v>45595</v>
       </c>
@@ -2680,9 +2680,9 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="41"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
+      <c r="A78" s="49"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
       <c r="D78" s="10"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
@@ -2692,9 +2692,9 @@
       <c r="J78" s="14"/>
     </row>
     <row r="79" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="41"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
+      <c r="A79" s="49"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
       <c r="D79" s="21">
         <v>45596</v>
       </c>
@@ -2730,13 +2730,13 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="38" t="s">
+      <c r="A81" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B81" s="39">
+      <c r="B81" s="43">
         <v>45601</v>
       </c>
-      <c r="C81" s="39">
+      <c r="C81" s="43">
         <v>45604</v>
       </c>
       <c r="D81" s="21">
@@ -2760,9 +2760,9 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="38"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
       <c r="D82" s="10"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
@@ -2772,9 +2772,9 @@
       <c r="J82" s="14"/>
     </row>
     <row r="83" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="38"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
       <c r="D83" s="21">
         <v>45602</v>
       </c>
@@ -2796,9 +2796,9 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="38"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
       <c r="D84" s="10"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
@@ -2808,9 +2808,9 @@
       <c r="J84" s="14"/>
     </row>
     <row r="85" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="38"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
       <c r="D85" s="21">
         <v>45603</v>
       </c>
@@ -2832,9 +2832,9 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="38"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
       <c r="D86" s="10"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -2844,10 +2844,10 @@
       <c r="J86" s="23"/>
     </row>
     <row r="87" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="38"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="43">
+      <c r="A87" s="42"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="40">
         <v>45604</v>
       </c>
       <c r="E87" s="7">
@@ -2865,15 +2865,15 @@
       <c r="I87" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="J87" s="48">
+      <c r="J87" s="41">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="38"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="43"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="40"/>
       <c r="E88" s="7">
         <v>0.70833333333333337</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>81</v>
       </c>
       <c r="I88" s="17"/>
-      <c r="J88" s="48"/>
+      <c r="J88" s="41"/>
     </row>
     <row r="89" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
@@ -2902,13 +2902,13 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="38" t="s">
+      <c r="A90" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="39">
+      <c r="B90" s="43">
         <v>45607</v>
       </c>
-      <c r="C90" s="39">
+      <c r="C90" s="43">
         <v>45611</v>
       </c>
       <c r="D90" s="24">
@@ -2934,9 +2934,9 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="38"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
       <c r="D91" s="10"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
@@ -2946,9 +2946,9 @@
       <c r="J91" s="23"/>
     </row>
     <row r="92" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="38"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="40"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="44"/>
       <c r="D92" s="36">
         <v>45608</v>
       </c>
@@ -2972,9 +2972,9 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="38"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="40"/>
+      <c r="A93" s="42"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="44"/>
       <c r="D93" s="37"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
@@ -2984,9 +2984,9 @@
       <c r="J93" s="23"/>
     </row>
     <row r="94" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="38"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="40"/>
+      <c r="A94" s="42"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="44"/>
       <c r="D94" s="36">
         <v>45609</v>
       </c>
@@ -3010,9 +3010,9 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="38"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
+      <c r="A95" s="42"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
       <c r="D95" s="10"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
@@ -3022,9 +3022,9 @@
       <c r="J95" s="23"/>
     </row>
     <row r="96" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="38"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
+      <c r="A96" s="42"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
       <c r="D96" s="21">
         <v>45610</v>
       </c>
@@ -3048,9 +3048,9 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="38"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
+      <c r="A97" s="42"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
       <c r="D97" s="10"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
@@ -3060,9 +3060,9 @@
       <c r="J97" s="23"/>
     </row>
     <row r="98" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="38"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
+      <c r="A98" s="42"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
       <c r="D98" s="35">
         <v>45611</v>
       </c>
@@ -3098,16 +3098,16 @@
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="55" t="s">
+      <c r="A100" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="52">
+      <c r="B100" s="54">
         <v>45614</v>
       </c>
-      <c r="C100" s="49">
+      <c r="C100" s="57">
         <v>45618</v>
       </c>
-      <c r="D100" s="58">
+      <c r="D100" s="38">
         <v>45614</v>
       </c>
       <c r="E100" s="25">
@@ -3130,9 +3130,9 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="56"/>
-      <c r="B101" s="53"/>
-      <c r="C101" s="50"/>
+      <c r="A101" s="52"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="58"/>
       <c r="D101" s="37"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
@@ -3142,9 +3142,9 @@
       <c r="J101" s="23"/>
     </row>
     <row r="102" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="56"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="50"/>
+      <c r="A102" s="52"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="58"/>
       <c r="D102" s="36">
         <v>45615</v>
       </c>
@@ -3168,9 +3168,9 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="56"/>
-      <c r="B103" s="53"/>
-      <c r="C103" s="50"/>
+      <c r="A103" s="52"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="58"/>
       <c r="D103" s="37"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
@@ -3180,9 +3180,9 @@
       <c r="J103" s="23"/>
     </row>
     <row r="104" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="56"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="50"/>
+      <c r="A104" s="52"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="58"/>
       <c r="D104" s="36">
         <v>45616</v>
       </c>
@@ -3206,9 +3206,9 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="56"/>
-      <c r="B105" s="53"/>
-      <c r="C105" s="50"/>
+      <c r="A105" s="52"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="58"/>
       <c r="D105" s="37"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
@@ -3218,9 +3218,9 @@
       <c r="J105" s="23"/>
     </row>
     <row r="106" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="56"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="50"/>
+      <c r="A106" s="52"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="58"/>
       <c r="D106" s="36">
         <v>45617</v>
       </c>
@@ -3244,9 +3244,9 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="56"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="50"/>
+      <c r="A107" s="52"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="58"/>
       <c r="D107" s="37"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
@@ -3256,10 +3256,10 @@
       <c r="J107" s="23"/>
     </row>
     <row r="108" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="57"/>
-      <c r="B108" s="54"/>
-      <c r="C108" s="51"/>
-      <c r="D108" s="59"/>
+      <c r="A108" s="53"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="39"/>
       <c r="E108" s="30"/>
       <c r="F108" s="30"/>
       <c r="G108" s="31"/>
@@ -3269,16 +3269,48 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="A90:A98"/>
-    <mergeCell ref="B90:B98"/>
-    <mergeCell ref="C90:C98"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="B70:B79"/>
+    <mergeCell ref="C70:C79"/>
+    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="C81:C88"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="A53:A68"/>
+    <mergeCell ref="B53:B68"/>
+    <mergeCell ref="C53:C68"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="A36:A51"/>
+    <mergeCell ref="B36:B51"/>
+    <mergeCell ref="C36:C51"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="J47:J48"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="A18:A34"/>
@@ -3295,48 +3327,16 @@
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D27:D30"/>
-    <mergeCell ref="A36:A51"/>
-    <mergeCell ref="B36:B51"/>
-    <mergeCell ref="C36:C51"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="A53:A68"/>
-    <mergeCell ref="B53:B68"/>
-    <mergeCell ref="C53:C68"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="A70:A79"/>
-    <mergeCell ref="B70:B79"/>
-    <mergeCell ref="C70:C79"/>
-    <mergeCell ref="A81:A88"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="C81:C88"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="A90:A98"/>
+    <mergeCell ref="B90:B98"/>
+    <mergeCell ref="C90:C98"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1. Cronograma/Steven Pozo_cronograma.xlsx
+++ b/1. Cronograma/Steven Pozo_cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7. Septimo Semestre\1. Practicas\3. Perfil profesional\Practicas-PP\1. Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE4F45A-DA78-438C-83D8-275522B666B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92280F7E-CE20-42EF-BFAB-30E6054F80CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -756,10 +756,37 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -768,7 +795,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -783,37 +810,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1209,7 +1209,7 @@
       <c r="C2" s="50">
         <v>45569</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="53">
         <v>45565</v>
       </c>
       <c r="E2" s="7">
@@ -1225,7 +1225,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="45">
+      <c r="J2" s="54">
         <v>6</v>
       </c>
       <c r="L2" s="1">
@@ -1237,7 +1237,7 @@
       <c r="A3" s="49"/>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
-      <c r="D3" s="40"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1251,13 +1251,13 @@
         <v>13</v>
       </c>
       <c r="I3" s="17"/>
-      <c r="J3" s="45"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
-      <c r="D4" s="40"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="7">
         <v>0.5</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="17"/>
-      <c r="J4" s="45"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49"/>
@@ -1289,7 +1289,7 @@
       <c r="A6" s="49"/>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
-      <c r="D6" s="40">
+      <c r="D6" s="53">
         <v>45566</v>
       </c>
       <c r="E6" s="7">
@@ -1305,7 +1305,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="17"/>
-      <c r="J6" s="45">
+      <c r="J6" s="54">
         <v>6</v>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       <c r="A7" s="49"/>
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
-      <c r="D7" s="40"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="7">
         <v>0.5</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="17"/>
-      <c r="J7" s="45"/>
+      <c r="J7" s="54"/>
     </row>
     <row r="8" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="49"/>
@@ -1345,7 +1345,7 @@
       <c r="A9" s="49"/>
       <c r="B9" s="50"/>
       <c r="C9" s="50"/>
-      <c r="D9" s="40">
+      <c r="D9" s="53">
         <v>45567</v>
       </c>
       <c r="E9" s="7">
@@ -1361,7 +1361,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="17"/>
-      <c r="J9" s="45">
+      <c r="J9" s="54">
         <v>6</v>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       <c r="A10" s="49"/>
       <c r="B10" s="50"/>
       <c r="C10" s="50"/>
-      <c r="D10" s="40"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>18</v>
       </c>
       <c r="I10" s="17"/>
-      <c r="J10" s="45"/>
+      <c r="J10" s="54"/>
     </row>
     <row r="11" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="49"/>
@@ -1401,7 +1401,7 @@
       <c r="A12" s="49"/>
       <c r="B12" s="50"/>
       <c r="C12" s="50"/>
-      <c r="D12" s="40">
+      <c r="D12" s="53">
         <v>45568</v>
       </c>
       <c r="E12" s="7">
@@ -1417,7 +1417,7 @@
         <v>19</v>
       </c>
       <c r="I12" s="17"/>
-      <c r="J12" s="45">
+      <c r="J12" s="54">
         <v>6</v>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       <c r="A13" s="49"/>
       <c r="B13" s="50"/>
       <c r="C13" s="50"/>
-      <c r="D13" s="40"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>20</v>
       </c>
       <c r="I13" s="17"/>
-      <c r="J13" s="45"/>
+      <c r="J13" s="54"/>
     </row>
     <row r="14" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="49"/>
@@ -1457,7 +1457,7 @@
       <c r="A15" s="49"/>
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
-      <c r="D15" s="40">
+      <c r="D15" s="53">
         <v>45569</v>
       </c>
       <c r="E15" s="7">
@@ -1473,7 +1473,7 @@
         <v>21</v>
       </c>
       <c r="I15" s="17"/>
-      <c r="J15" s="47">
+      <c r="J15" s="56">
         <v>6</v>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       <c r="A16" s="49"/>
       <c r="B16" s="50"/>
       <c r="C16" s="50"/>
-      <c r="D16" s="46"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="17"/>
-      <c r="J16" s="48"/>
+      <c r="J16" s="57"/>
     </row>
     <row r="17" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
@@ -1519,7 +1519,7 @@
       <c r="C18" s="50">
         <v>45575</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="53">
         <v>45572</v>
       </c>
       <c r="E18" s="7">
@@ -1535,7 +1535,7 @@
         <v>24</v>
       </c>
       <c r="I18" s="17"/>
-      <c r="J18" s="45">
+      <c r="J18" s="54">
         <v>6</v>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       <c r="A19" s="49"/>
       <c r="B19" s="50"/>
       <c r="C19" s="50"/>
-      <c r="D19" s="40"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="7">
         <v>0.375</v>
       </c>
@@ -1557,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="I19" s="17"/>
-      <c r="J19" s="45"/>
+      <c r="J19" s="54"/>
     </row>
     <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="49"/>
       <c r="B20" s="50"/>
       <c r="C20" s="50"/>
-      <c r="D20" s="40"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1577,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="I20" s="17"/>
-      <c r="J20" s="45"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="49"/>
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
-      <c r="D21" s="40"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="7">
         <v>0.5</v>
       </c>
@@ -1599,7 +1599,7 @@
       <c r="I21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="45"/>
+      <c r="J21" s="54"/>
     </row>
     <row r="22" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="49"/>
@@ -1617,7 +1617,7 @@
       <c r="A23" s="49"/>
       <c r="B23" s="50"/>
       <c r="C23" s="50"/>
-      <c r="D23" s="40">
+      <c r="D23" s="53">
         <v>45573</v>
       </c>
       <c r="E23" s="7">
@@ -1633,7 +1633,7 @@
         <v>29</v>
       </c>
       <c r="I23" s="17"/>
-      <c r="J23" s="45">
+      <c r="J23" s="54">
         <v>6</v>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       <c r="A24" s="49"/>
       <c r="B24" s="50"/>
       <c r="C24" s="50"/>
-      <c r="D24" s="40"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -1655,13 +1655,13 @@
         <v>30</v>
       </c>
       <c r="I24" s="17"/>
-      <c r="J24" s="45"/>
+      <c r="J24" s="54"/>
     </row>
     <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="49"/>
       <c r="B25" s="50"/>
       <c r="C25" s="50"/>
-      <c r="D25" s="40"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>31</v>
       </c>
       <c r="I25" s="17"/>
-      <c r="J25" s="45"/>
+      <c r="J25" s="54"/>
     </row>
     <row r="26" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="49"/>
@@ -1693,7 +1693,7 @@
       <c r="A27" s="49"/>
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
-      <c r="D27" s="40">
+      <c r="D27" s="53">
         <v>45574</v>
       </c>
       <c r="E27" s="16">
@@ -1709,7 +1709,7 @@
         <v>32</v>
       </c>
       <c r="I27" s="17"/>
-      <c r="J27" s="45">
+      <c r="J27" s="54">
         <v>6</v>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       <c r="A28" s="49"/>
       <c r="B28" s="50"/>
       <c r="C28" s="50"/>
-      <c r="D28" s="40"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="7">
         <v>0.375</v>
       </c>
@@ -1731,13 +1731,13 @@
         <v>33</v>
       </c>
       <c r="I28" s="17"/>
-      <c r="J28" s="45"/>
+      <c r="J28" s="54"/>
     </row>
     <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="49"/>
       <c r="B29" s="50"/>
       <c r="C29" s="50"/>
-      <c r="D29" s="40"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1751,13 +1751,13 @@
         <v>34</v>
       </c>
       <c r="I29" s="17"/>
-      <c r="J29" s="45"/>
+      <c r="J29" s="54"/>
     </row>
     <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
       <c r="C30" s="50"/>
-      <c r="D30" s="40"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="7">
         <v>0.5</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>35</v>
       </c>
       <c r="I30" s="17"/>
-      <c r="J30" s="45"/>
+      <c r="J30" s="54"/>
     </row>
     <row r="31" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="49"/>
@@ -1789,7 +1789,7 @@
       <c r="A32" s="49"/>
       <c r="B32" s="50"/>
       <c r="C32" s="50"/>
-      <c r="D32" s="40">
+      <c r="D32" s="53">
         <v>45575</v>
       </c>
       <c r="E32" s="7">
@@ -1805,7 +1805,7 @@
         <v>36</v>
       </c>
       <c r="I32" s="17"/>
-      <c r="J32" s="45">
+      <c r="J32" s="54">
         <v>6</v>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       <c r="A33" s="49"/>
       <c r="B33" s="50"/>
       <c r="C33" s="50"/>
-      <c r="D33" s="40"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -1827,13 +1827,13 @@
         <v>37</v>
       </c>
       <c r="I33" s="17"/>
-      <c r="J33" s="45"/>
+      <c r="J33" s="54"/>
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
       <c r="C34" s="50"/>
-      <c r="D34" s="40"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="7">
         <v>0.5</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>38</v>
       </c>
       <c r="I34" s="17"/>
-      <c r="J34" s="45"/>
+      <c r="J34" s="54"/>
     </row>
     <row r="35" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
@@ -1871,7 +1871,7 @@
       <c r="C36" s="50">
         <v>45583</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D36" s="53">
         <v>45579</v>
       </c>
       <c r="E36" s="7">
@@ -1887,7 +1887,7 @@
         <v>40</v>
       </c>
       <c r="I36" s="17"/>
-      <c r="J36" s="45">
+      <c r="J36" s="54">
         <v>6</v>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
       <c r="C37" s="50"/>
-      <c r="D37" s="40"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -1909,13 +1909,13 @@
         <v>41</v>
       </c>
       <c r="I37" s="17"/>
-      <c r="J37" s="45"/>
+      <c r="J37" s="54"/>
     </row>
     <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
       <c r="C38" s="50"/>
-      <c r="D38" s="40"/>
+      <c r="D38" s="53"/>
       <c r="E38" s="7">
         <v>0.625</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>42</v>
       </c>
       <c r="I38" s="17"/>
-      <c r="J38" s="45"/>
+      <c r="J38" s="54"/>
     </row>
     <row r="39" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="49"/>
@@ -1947,7 +1947,7 @@
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
-      <c r="D40" s="40">
+      <c r="D40" s="53">
         <v>45580</v>
       </c>
       <c r="E40" s="7">
@@ -1963,7 +1963,7 @@
         <v>43</v>
       </c>
       <c r="I40" s="17"/>
-      <c r="J40" s="45">
+      <c r="J40" s="54">
         <v>6</v>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       <c r="A41" s="49"/>
       <c r="B41" s="50"/>
       <c r="C41" s="50"/>
-      <c r="D41" s="40"/>
+      <c r="D41" s="53"/>
       <c r="E41" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -1985,13 +1985,13 @@
         <v>44</v>
       </c>
       <c r="I41" s="17"/>
-      <c r="J41" s="45"/>
+      <c r="J41" s="54"/>
     </row>
     <row r="42" spans="1:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
       <c r="C42" s="50"/>
-      <c r="D42" s="40"/>
+      <c r="D42" s="53"/>
       <c r="E42" s="7">
         <v>0.625</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>45</v>
       </c>
       <c r="I42" s="17"/>
-      <c r="J42" s="45"/>
+      <c r="J42" s="54"/>
     </row>
     <row r="43" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="49"/>
@@ -2023,7 +2023,7 @@
       <c r="A44" s="49"/>
       <c r="B44" s="50"/>
       <c r="C44" s="50"/>
-      <c r="D44" s="40">
+      <c r="D44" s="53">
         <v>45581</v>
       </c>
       <c r="E44" s="7">
@@ -2039,7 +2039,7 @@
         <v>46</v>
       </c>
       <c r="I44" s="17"/>
-      <c r="J44" s="45">
+      <c r="J44" s="54">
         <v>6</v>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="40"/>
+      <c r="D45" s="53"/>
       <c r="E45" s="7">
         <v>0.625</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>47</v>
       </c>
       <c r="I45" s="17"/>
-      <c r="J45" s="45"/>
+      <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="49"/>
@@ -2079,7 +2079,7 @@
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
       <c r="C47" s="50"/>
-      <c r="D47" s="40">
+      <c r="D47" s="53">
         <v>45582</v>
       </c>
       <c r="E47" s="7">
@@ -2095,7 +2095,7 @@
         <v>48</v>
       </c>
       <c r="I47" s="17"/>
-      <c r="J47" s="45">
+      <c r="J47" s="54">
         <v>6</v>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
       <c r="C48" s="50"/>
-      <c r="D48" s="40"/>
+      <c r="D48" s="53"/>
       <c r="E48" s="7">
         <v>0.54166666666666663</v>
       </c>
@@ -2119,7 +2119,7 @@
       <c r="I48" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J48" s="45"/>
+      <c r="J48" s="54"/>
     </row>
     <row r="49" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="49"/>
@@ -2137,7 +2137,7 @@
       <c r="A50" s="49"/>
       <c r="B50" s="50"/>
       <c r="C50" s="50"/>
-      <c r="D50" s="40">
+      <c r="D50" s="53">
         <v>45583</v>
       </c>
       <c r="E50" s="7">
@@ -2153,7 +2153,7 @@
         <v>51</v>
       </c>
       <c r="I50" s="17"/>
-      <c r="J50" s="45">
+      <c r="J50" s="54">
         <v>6</v>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       <c r="A51" s="49"/>
       <c r="B51" s="50"/>
       <c r="C51" s="50"/>
-      <c r="D51" s="40"/>
+      <c r="D51" s="53"/>
       <c r="E51" s="7">
         <v>0.625</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>52</v>
       </c>
       <c r="I51" s="17"/>
-      <c r="J51" s="45"/>
+      <c r="J51" s="54"/>
     </row>
     <row r="52" spans="1:10" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
@@ -2199,7 +2199,7 @@
       <c r="C53" s="50">
         <v>45590</v>
       </c>
-      <c r="D53" s="40">
+      <c r="D53" s="53">
         <v>45586</v>
       </c>
       <c r="E53" s="7">
@@ -2215,7 +2215,7 @@
         <v>54</v>
       </c>
       <c r="I53" s="17"/>
-      <c r="J53" s="45">
+      <c r="J53" s="54">
         <v>6</v>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
       <c r="A54" s="49"/>
       <c r="B54" s="50"/>
       <c r="C54" s="50"/>
-      <c r="D54" s="40"/>
+      <c r="D54" s="53"/>
       <c r="E54" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>55</v>
       </c>
       <c r="I54" s="17"/>
-      <c r="J54" s="45"/>
+      <c r="J54" s="54"/>
     </row>
     <row r="55" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="49"/>
@@ -2255,7 +2255,7 @@
       <c r="A56" s="49"/>
       <c r="B56" s="50"/>
       <c r="C56" s="50"/>
-      <c r="D56" s="40">
+      <c r="D56" s="53">
         <v>45587</v>
       </c>
       <c r="E56" s="7">
@@ -2271,7 +2271,7 @@
         <v>56</v>
       </c>
       <c r="I56" s="17"/>
-      <c r="J56" s="45">
+      <c r="J56" s="54">
         <v>6</v>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       <c r="A57" s="49"/>
       <c r="B57" s="50"/>
       <c r="C57" s="50"/>
-      <c r="D57" s="40"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -2293,13 +2293,13 @@
         <v>57</v>
       </c>
       <c r="I57" s="17"/>
-      <c r="J57" s="45"/>
+      <c r="J57" s="54"/>
     </row>
     <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="49"/>
       <c r="B58" s="50"/>
       <c r="C58" s="50"/>
-      <c r="D58" s="40"/>
+      <c r="D58" s="53"/>
       <c r="E58" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>58</v>
       </c>
       <c r="I58" s="17"/>
-      <c r="J58" s="45"/>
+      <c r="J58" s="54"/>
     </row>
     <row r="59" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="49"/>
@@ -2331,7 +2331,7 @@
       <c r="A60" s="49"/>
       <c r="B60" s="50"/>
       <c r="C60" s="50"/>
-      <c r="D60" s="40">
+      <c r="D60" s="53">
         <v>45588</v>
       </c>
       <c r="E60" s="7">
@@ -2347,7 +2347,7 @@
         <v>59</v>
       </c>
       <c r="I60" s="17"/>
-      <c r="J60" s="45">
+      <c r="J60" s="54">
         <v>6</v>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
       <c r="A61" s="49"/>
       <c r="B61" s="50"/>
       <c r="C61" s="50"/>
-      <c r="D61" s="40"/>
+      <c r="D61" s="53"/>
       <c r="E61" s="7">
         <v>0.41666666666666669</v>
       </c>
@@ -2371,13 +2371,13 @@
       <c r="I61" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J61" s="45"/>
+      <c r="J61" s="54"/>
     </row>
     <row r="62" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="49"/>
       <c r="B62" s="50"/>
       <c r="C62" s="50"/>
-      <c r="D62" s="40"/>
+      <c r="D62" s="53"/>
       <c r="E62" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>62</v>
       </c>
       <c r="I62" s="17"/>
-      <c r="J62" s="45"/>
+      <c r="J62" s="54"/>
     </row>
     <row r="63" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="49"/>
@@ -2409,7 +2409,7 @@
       <c r="A64" s="49"/>
       <c r="B64" s="50"/>
       <c r="C64" s="50"/>
-      <c r="D64" s="40">
+      <c r="D64" s="53">
         <v>45589</v>
       </c>
       <c r="E64" s="7">
@@ -2425,7 +2425,7 @@
         <v>63</v>
       </c>
       <c r="I64" s="17"/>
-      <c r="J64" s="45">
+      <c r="J64" s="54">
         <v>6</v>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="A65" s="49"/>
       <c r="B65" s="50"/>
       <c r="C65" s="50"/>
-      <c r="D65" s="40"/>
+      <c r="D65" s="53"/>
       <c r="E65" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>64</v>
       </c>
       <c r="I65" s="17"/>
-      <c r="J65" s="45"/>
+      <c r="J65" s="54"/>
     </row>
     <row r="66" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="49"/>
@@ -2465,7 +2465,7 @@
       <c r="A67" s="49"/>
       <c r="B67" s="50"/>
       <c r="C67" s="50"/>
-      <c r="D67" s="40">
+      <c r="D67" s="53">
         <v>45590</v>
       </c>
       <c r="E67" s="7">
@@ -2481,7 +2481,7 @@
         <v>65</v>
       </c>
       <c r="I67" s="17"/>
-      <c r="J67" s="45">
+      <c r="J67" s="54">
         <v>6</v>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       <c r="A68" s="49"/>
       <c r="B68" s="50"/>
       <c r="C68" s="50"/>
-      <c r="D68" s="40"/>
+      <c r="D68" s="53"/>
       <c r="E68" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>66</v>
       </c>
       <c r="I68" s="17"/>
-      <c r="J68" s="45"/>
+      <c r="J68" s="54"/>
     </row>
     <row r="69" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
@@ -2527,7 +2527,7 @@
       <c r="C70" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="D70" s="40">
+      <c r="D70" s="53">
         <v>45593</v>
       </c>
       <c r="E70" s="7">
@@ -2543,7 +2543,7 @@
         <v>68</v>
       </c>
       <c r="I70" s="17"/>
-      <c r="J70" s="45">
+      <c r="J70" s="54">
         <v>4</v>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       <c r="A71" s="49"/>
       <c r="B71" s="50"/>
       <c r="C71" s="50"/>
-      <c r="D71" s="40"/>
+      <c r="D71" s="53"/>
       <c r="E71" s="7">
         <v>0.375</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>69</v>
       </c>
       <c r="I71" s="17"/>
-      <c r="J71" s="45"/>
+      <c r="J71" s="54"/>
     </row>
     <row r="72" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="49"/>
@@ -2583,7 +2583,7 @@
       <c r="A73" s="49"/>
       <c r="B73" s="50"/>
       <c r="C73" s="50"/>
-      <c r="D73" s="40">
+      <c r="D73" s="53">
         <v>45594</v>
       </c>
       <c r="E73" s="7">
@@ -2599,7 +2599,7 @@
         <v>70</v>
       </c>
       <c r="I73" s="17"/>
-      <c r="J73" s="45">
+      <c r="J73" s="54">
         <v>4</v>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       <c r="A74" s="49"/>
       <c r="B74" s="50"/>
       <c r="C74" s="50"/>
-      <c r="D74" s="40"/>
+      <c r="D74" s="53"/>
       <c r="E74" s="7">
         <v>0.70833333333333337</v>
       </c>
@@ -2621,13 +2621,13 @@
         <v>71</v>
       </c>
       <c r="I74" s="17"/>
-      <c r="J74" s="45"/>
+      <c r="J74" s="54"/>
     </row>
     <row r="75" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="49"/>
       <c r="B75" s="50"/>
       <c r="C75" s="50"/>
-      <c r="D75" s="40"/>
+      <c r="D75" s="53"/>
       <c r="E75" s="7">
         <v>0.75</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>72</v>
       </c>
       <c r="I75" s="17"/>
-      <c r="J75" s="45"/>
+      <c r="J75" s="54"/>
     </row>
     <row r="76" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="49"/>
@@ -2730,13 +2730,13 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="42" t="s">
+      <c r="A81" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B81" s="43">
+      <c r="B81" s="52">
         <v>45601</v>
       </c>
-      <c r="C81" s="43">
+      <c r="C81" s="52">
         <v>45604</v>
       </c>
       <c r="D81" s="21">
@@ -2760,9 +2760,9 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="42"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
+      <c r="A82" s="51"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="52"/>
       <c r="D82" s="10"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
@@ -2772,9 +2772,9 @@
       <c r="J82" s="14"/>
     </row>
     <row r="83" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="42"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
+      <c r="A83" s="51"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
       <c r="D83" s="21">
         <v>45602</v>
       </c>
@@ -2796,9 +2796,9 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="42"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
+      <c r="A84" s="51"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
       <c r="D84" s="10"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
@@ -2808,9 +2808,9 @@
       <c r="J84" s="14"/>
     </row>
     <row r="85" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="42"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
+      <c r="A85" s="51"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="52"/>
       <c r="D85" s="21">
         <v>45603</v>
       </c>
@@ -2832,9 +2832,9 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="42"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
+      <c r="A86" s="51"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
       <c r="D86" s="10"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -2844,10 +2844,10 @@
       <c r="J86" s="23"/>
     </row>
     <row r="87" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="42"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="40">
+      <c r="A87" s="51"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="53">
         <v>45604</v>
       </c>
       <c r="E87" s="7">
@@ -2865,15 +2865,15 @@
       <c r="I87" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="J87" s="41">
+      <c r="J87" s="58">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="42"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="40"/>
+      <c r="A88" s="51"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="53"/>
       <c r="E88" s="7">
         <v>0.70833333333333337</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>81</v>
       </c>
       <c r="I88" s="17"/>
-      <c r="J88" s="41"/>
+      <c r="J88" s="58"/>
     </row>
     <row r="89" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
@@ -2902,13 +2902,13 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="42" t="s">
+      <c r="A90" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="43">
+      <c r="B90" s="52">
         <v>45607</v>
       </c>
-      <c r="C90" s="43">
+      <c r="C90" s="52">
         <v>45611</v>
       </c>
       <c r="D90" s="24">
@@ -2934,9 +2934,9 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="42"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
+      <c r="A91" s="51"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="52"/>
       <c r="D91" s="10"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
@@ -2946,9 +2946,9 @@
       <c r="J91" s="23"/>
     </row>
     <row r="92" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="42"/>
-      <c r="B92" s="43"/>
-      <c r="C92" s="44"/>
+      <c r="A92" s="51"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="59"/>
       <c r="D92" s="36">
         <v>45608</v>
       </c>
@@ -2972,9 +2972,9 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="42"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="44"/>
+      <c r="A93" s="51"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="59"/>
       <c r="D93" s="37"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
@@ -2984,9 +2984,9 @@
       <c r="J93" s="23"/>
     </row>
     <row r="94" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="42"/>
-      <c r="B94" s="43"/>
-      <c r="C94" s="44"/>
+      <c r="A94" s="51"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="59"/>
       <c r="D94" s="36">
         <v>45609</v>
       </c>
@@ -3010,9 +3010,9 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="42"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
+      <c r="A95" s="51"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="52"/>
       <c r="D95" s="10"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
@@ -3022,9 +3022,9 @@
       <c r="J95" s="23"/>
     </row>
     <row r="96" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="42"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
+      <c r="A96" s="51"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="52"/>
       <c r="D96" s="21">
         <v>45610</v>
       </c>
@@ -3048,9 +3048,9 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="42"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
+      <c r="A97" s="51"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="52"/>
       <c r="D97" s="10"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
@@ -3060,9 +3060,9 @@
       <c r="J97" s="23"/>
     </row>
     <row r="98" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="42"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
+      <c r="A98" s="51"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="52"/>
       <c r="D98" s="35">
         <v>45611</v>
       </c>
@@ -3098,13 +3098,13 @@
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="51" t="s">
+      <c r="A100" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="54">
+      <c r="B100" s="43">
         <v>45614</v>
       </c>
-      <c r="C100" s="57">
+      <c r="C100" s="46">
         <v>45618</v>
       </c>
       <c r="D100" s="38">
@@ -3130,9 +3130,9 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="52"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="58"/>
+      <c r="A101" s="41"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="47"/>
       <c r="D101" s="37"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
@@ -3142,9 +3142,9 @@
       <c r="J101" s="23"/>
     </row>
     <row r="102" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="52"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="58"/>
+      <c r="A102" s="41"/>
+      <c r="B102" s="44"/>
+      <c r="C102" s="47"/>
       <c r="D102" s="36">
         <v>45615</v>
       </c>
@@ -3168,9 +3168,9 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="52"/>
-      <c r="B103" s="55"/>
-      <c r="C103" s="58"/>
+      <c r="A103" s="41"/>
+      <c r="B103" s="44"/>
+      <c r="C103" s="47"/>
       <c r="D103" s="37"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
@@ -3180,9 +3180,9 @@
       <c r="J103" s="23"/>
     </row>
     <row r="104" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="52"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="58"/>
+      <c r="A104" s="41"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="47"/>
       <c r="D104" s="36">
         <v>45616</v>
       </c>
@@ -3206,9 +3206,9 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="52"/>
-      <c r="B105" s="55"/>
-      <c r="C105" s="58"/>
+      <c r="A105" s="41"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="47"/>
       <c r="D105" s="37"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
@@ -3218,9 +3218,9 @@
       <c r="J105" s="23"/>
     </row>
     <row r="106" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="52"/>
-      <c r="B106" s="55"/>
-      <c r="C106" s="58"/>
+      <c r="A106" s="41"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="47"/>
       <c r="D106" s="36">
         <v>45617</v>
       </c>
@@ -3244,9 +3244,9 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="52"/>
-      <c r="B107" s="55"/>
-      <c r="C107" s="58"/>
+      <c r="A107" s="41"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="47"/>
       <c r="D107" s="37"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
@@ -3256,9 +3256,9 @@
       <c r="J107" s="23"/>
     </row>
     <row r="108" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="53"/>
-      <c r="B108" s="56"/>
-      <c r="C108" s="59"/>
+      <c r="A108" s="42"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="48"/>
       <c r="D108" s="39"/>
       <c r="E108" s="30"/>
       <c r="F108" s="30"/>
@@ -3269,48 +3269,16 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="A70:A79"/>
-    <mergeCell ref="B70:B79"/>
-    <mergeCell ref="C70:C79"/>
-    <mergeCell ref="A81:A88"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="C81:C88"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="A53:A68"/>
-    <mergeCell ref="B53:B68"/>
-    <mergeCell ref="C53:C68"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="A36:A51"/>
-    <mergeCell ref="B36:B51"/>
-    <mergeCell ref="C36:C51"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="A90:A98"/>
+    <mergeCell ref="B90:B98"/>
+    <mergeCell ref="C90:C98"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J12:J13"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="A18:A34"/>
@@ -3327,16 +3295,48 @@
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D27:D30"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="A90:A98"/>
-    <mergeCell ref="B90:B98"/>
-    <mergeCell ref="C90:C98"/>
+    <mergeCell ref="A36:A51"/>
+    <mergeCell ref="B36:B51"/>
+    <mergeCell ref="C36:C51"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="A53:A68"/>
+    <mergeCell ref="B53:B68"/>
+    <mergeCell ref="C53:C68"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="B70:B79"/>
+    <mergeCell ref="C70:C79"/>
+    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="C81:C88"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
